--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H2">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>921.3415202652536</v>
+        <v>213.0418828541756</v>
       </c>
       <c r="R2">
-        <v>8292.073682387283</v>
+        <v>1917.37694568758</v>
       </c>
       <c r="S2">
-        <v>0.008995873465570771</v>
+        <v>0.002382123770207231</v>
       </c>
       <c r="T2">
-        <v>0.008995873465570769</v>
+        <v>0.002382123770207231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H3">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>799.6091712973849</v>
+        <v>280.7230020130809</v>
       </c>
       <c r="R3">
-        <v>7196.482541676464</v>
+        <v>2526.507018117728</v>
       </c>
       <c r="S3">
-        <v>0.007807292701657758</v>
+        <v>0.003138898919688109</v>
       </c>
       <c r="T3">
-        <v>0.007807292701657755</v>
+        <v>0.003138898919688108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H4">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1117.994502681566</v>
+        <v>392.5002167217103</v>
       </c>
       <c r="R4">
-        <v>10061.9505241341</v>
+        <v>3532.501950495392</v>
       </c>
       <c r="S4">
-        <v>0.01091597074495415</v>
+        <v>0.004388733724740221</v>
       </c>
       <c r="T4">
-        <v>0.01091597074495415</v>
+        <v>0.00438873372474022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J5">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>31149.25526189663</v>
+        <v>20515.95716007702</v>
       </c>
       <c r="R5">
-        <v>280343.2973570697</v>
+        <v>184643.6144406932</v>
       </c>
       <c r="S5">
-        <v>0.3041377737997881</v>
+        <v>0.2293987856511044</v>
       </c>
       <c r="T5">
-        <v>0.3041377737997881</v>
+        <v>0.2293987856511043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J6">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
-        <v>27033.65650917924</v>
+        <v>27033.65650917923</v>
       </c>
       <c r="R6">
-        <v>243302.9085826132</v>
+        <v>243302.9085826131</v>
       </c>
       <c r="S6">
-        <v>0.2639535372271787</v>
+        <v>0.3022763172357643</v>
       </c>
       <c r="T6">
-        <v>0.2639535372271786</v>
+        <v>0.3022763172357641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J7">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
-        <v>37797.81479445242</v>
+        <v>37797.81479445241</v>
       </c>
       <c r="R7">
         <v>340180.3331500717</v>
       </c>
       <c r="S7">
-        <v>0.3690535503795379</v>
+        <v>0.422635548829552</v>
       </c>
       <c r="T7">
-        <v>0.3690535503795378</v>
+        <v>0.422635548829552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J8">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>1167.866709113712</v>
+        <v>769.1966684727144</v>
       </c>
       <c r="R8">
-        <v>10510.80038202341</v>
+        <v>6922.770016254431</v>
       </c>
       <c r="S8">
-        <v>0.01140291727742264</v>
+        <v>0.008600757951370833</v>
       </c>
       <c r="T8">
-        <v>0.01140291727742264</v>
+        <v>0.008600757951370832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J9">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>1013.562192650743</v>
@@ -1004,10 +1004,10 @@
         <v>9122.059733856688</v>
       </c>
       <c r="S9">
-        <v>0.009896305587039559</v>
+        <v>0.01133312642260744</v>
       </c>
       <c r="T9">
-        <v>0.009896305587039555</v>
+        <v>0.01133312642260744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J10">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>1417.138522399426</v>
@@ -1066,10 +1066,10 @@
         <v>12754.24670159483</v>
       </c>
       <c r="S10">
-        <v>0.01383677881685057</v>
+        <v>0.01584570749496575</v>
       </c>
       <c r="T10">
-        <v>0.01383677881685057</v>
+        <v>0.01584570749496575</v>
       </c>
     </row>
   </sheetData>
